--- a/stock_futures_roll_data.xlsx
+++ b/stock_futures_roll_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Stock Code</t>
   </si>
@@ -28,6 +28,18 @@
     <t>Next Contract</t>
   </si>
   <si>
+    <t>Front Expiry</t>
+  </si>
+  <si>
+    <t>Next Expiry</t>
+  </si>
+  <si>
+    <t>Front Days to Expiry</t>
+  </si>
+  <si>
+    <t>Next Days to Expiry</t>
+  </si>
+  <si>
     <t>Front Volume</t>
   </si>
   <si>
@@ -127,16 +139,19 @@
     <t>Z74=K5 SP Equity</t>
   </si>
   <si>
-    <t>2025-04-13 14:47:32</t>
+    <t>2025-04-13 14:59:59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -196,13 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -509,320 +527,438 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45763</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45798</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5819</v>
+      </c>
+      <c r="J2" s="3">
+        <v>744</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12975</v>
+      </c>
+      <c r="L2" s="3">
+        <v>7624</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.113362791406369</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.3701150541288412</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0.2417389227676051</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45763</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45798</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3">
+        <v>29171</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6824</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10983</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10763</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.1895818863731074</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.4949415984548883</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.3422617424139978</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45776</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45806</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2690</v>
+      </c>
+      <c r="J4" s="3">
+        <v>703</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1966</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3880</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.2071912761567934</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.6637016763599042</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.4354464762583488</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1">
-        <v>5819</v>
-      </c>
-      <c r="F2" s="1">
-        <v>744</v>
-      </c>
-      <c r="G2" s="1">
-        <v>12975</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7624</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.113362791406369</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.3701150541288412</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.2417389227676051</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
+      <c r="E5" s="6">
+        <v>45776</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45806</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>73</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.3706896551724138</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.1853448275862069</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1">
-        <v>29171</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6824</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10983</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10763</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.1895818863731074</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.4949415984548883</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.3422617424139978</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45820</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45911</v>
+      </c>
+      <c r="G6" s="2">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2">
+        <v>151</v>
+      </c>
+      <c r="I6" s="3">
+        <v>31535</v>
+      </c>
+      <c r="J6" s="3">
+        <v>325</v>
+      </c>
+      <c r="K6" s="3">
+        <v>21506</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.01020266964072338</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.005101334820361689</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1">
-        <v>2690</v>
-      </c>
-      <c r="F4" s="1">
-        <v>703</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1966</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3880</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.2071912761567934</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.6637016763599042</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.4354464762583488</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45820</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45911</v>
+      </c>
+      <c r="G7" s="2">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2">
+        <v>151</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9692</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>43223</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1926</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.04265785021970334</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.02132892510985167</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>73</v>
-      </c>
-      <c r="H5" s="1">
-        <v>43</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.3706896551724138</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.1853448275862069</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7917</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7421</v>
-      </c>
-      <c r="G6" s="1">
-        <v>24516</v>
-      </c>
-      <c r="H6" s="1">
-        <v>15588</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.4838501015821116</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.3886957110464537</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.4362729063142827</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>45777</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45807</v>
+      </c>
+      <c r="G8" s="2">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17921</v>
-      </c>
-      <c r="F7" s="1">
-        <v>12041</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45785</v>
-      </c>
-      <c r="H7" s="1">
-        <v>30211</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.4018649898060364</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.3975317574141584</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.3996983736100974</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>34931</v>
-      </c>
-      <c r="F8" s="1">
-        <v>12340</v>
-      </c>
-      <c r="G8" s="1">
-        <v>53000</v>
-      </c>
-      <c r="H8" s="1">
-        <v>17284</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.2610546658030266</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.2459256941273159</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.2534901799651713</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
+      <c r="H8" s="2">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3">
+        <v>22022</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3755</v>
+      </c>
+      <c r="K8" s="3">
+        <v>71312</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6267</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.1456785098741572</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.08078163819608621</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.1132300740351217</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I8">
+  <conditionalFormatting sqref="G2:G8">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF9CD1CE"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H8">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF9CD1CE"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -834,7 +970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J8">
+  <conditionalFormatting sqref="N2:N8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -846,7 +982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K8">
+  <conditionalFormatting sqref="O2:O8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
